--- a/yanlongbin/Project code/woniuboss/data/woniuboss_gui/woniuboss_gui.xlsx
+++ b/yanlongbin/Project code/woniuboss/data/woniuboss_gui/woniuboss_gui.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="10020" activeTab="3"/>
+    <workbookView windowWidth="22080" windowHeight="10020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
   <si>
     <t>用例编号</t>
   </si>
@@ -102,10 +102,87 @@
     <t>EM_correct</t>
   </si>
   <si>
+    <t>技术面试-下拉框</t>
+  </si>
+  <si>
+    <t>技术面试-下拉框-查询</t>
+  </si>
+  <si>
+    <t>technology=全部</t>
+  </si>
+  <si>
+    <t>付文攀</t>
+  </si>
+  <si>
+    <t>技术面试-面试工作流</t>
+  </si>
+  <si>
+    <t>results=未通过
+em_questions=想要去哪里
+em_evaluation=上海</t>
+  </si>
+  <si>
     <t>EM_002</t>
   </si>
   <si>
     <t>就业管理-界面</t>
+  </si>
+  <si>
+    <t>就业管理-班级下拉框</t>
+  </si>
+  <si>
+    <t>就业管理-方向下拉框</t>
+  </si>
+  <si>
+    <t>就业管理-班级查询</t>
+  </si>
+  <si>
+    <t>class_query=全部</t>
+  </si>
+  <si>
+    <t>就业管理-方向查询</t>
+  </si>
+  <si>
+    <t>direction_query=全部</t>
+  </si>
+  <si>
+    <t>就业管理-姓名查询</t>
+  </si>
+  <si>
+    <t>em_name=付文攀</t>
+  </si>
+  <si>
+    <t>就业管理-学号查询</t>
+  </si>
+  <si>
+    <t>就业管理-模拟面试工作流</t>
+  </si>
+  <si>
+    <t>em_xpected_salary=12000
+mock_interviews=优
+em_note=太棒了</t>
+  </si>
+  <si>
+    <t>就业管理-真实面试工作流</t>
+  </si>
+  <si>
+    <t>enterprise=安科思软件(成都)有限公司
+jobs=Java工程师
+em_interview_time=2020-04-23
+em_interview_feedback=状态良好，面试成功</t>
+  </si>
+  <si>
+    <t>就业管理-入职情况工作流</t>
+  </si>
+  <si>
+    <t>enterprise=安科思软件(成都)有限公司
+jobs=Java工程师
+em_interview_time=2020-04-28
+em_induction_salary=13000
+em_interview_note=面试成功，待遇良好</t>
+  </si>
+  <si>
+    <t>就业管理-提交工作流</t>
   </si>
   <si>
     <t>FM_001</t>
@@ -250,8 +327,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -323,7 +400,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,15 +428,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,104 +537,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -493,31 +570,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,151 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,6 +802,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -741,50 +833,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,16 +863,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,19 +907,19 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,119 +928,119 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1000,6 +1077,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1417,39 +1497,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.7" style="13" customWidth="1"/>
-    <col min="2" max="2" width="29" style="13" customWidth="1"/>
-    <col min="3" max="4" width="35.2" style="13" customWidth="1"/>
-    <col min="5" max="5" width="26.6" style="13" customWidth="1"/>
-    <col min="6" max="6" width="27.4" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="15.7" style="14" customWidth="1"/>
+    <col min="2" max="2" width="29" style="14" customWidth="1"/>
+    <col min="3" max="4" width="35.2" style="14" customWidth="1"/>
+    <col min="5" max="5" width="26.6" style="14" customWidth="1"/>
+    <col min="6" max="6" width="27.4" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="108" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="9"/>
@@ -1459,102 +1539,102 @@
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" ht="13.8" spans="1:6">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" ht="13.8" spans="1:6">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" ht="13.8" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" ht="13.8" spans="1:6">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="33"/>
+      <c r="B15" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1566,10 +1646,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1619,12 +1699,10 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" s="11" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A3" s="6" t="s">
+    <row r="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
@@ -1639,102 +1717,243 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+    <row r="4" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+    <row r="5" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+    <row r="6" s="11" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:8">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+    <row r="7" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+    <row r="8" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" ht="30" customHeight="1" spans="1:8">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+    <row r="9" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" ht="30" customHeight="1" spans="1:8">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+    <row r="10" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" ht="30" customHeight="1" spans="1:8">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+    <row r="11" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:8">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+    <row r="12" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" ht="30" customHeight="1"/>
-    <row r="14" ht="30" customHeight="1"/>
-    <row r="15" ht="30" customHeight="1"/>
-    <row r="16" ht="30" customHeight="1"/>
+    <row r="13" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
     <row r="17" ht="30" customHeight="1"/>
     <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1745,10 +1964,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1775,10 +1994,10 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
@@ -1788,67 +2007,217 @@
         <v>22</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" ht="50" customHeight="1" spans="1:6">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" ht="50" customHeight="1" spans="1:6">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" ht="50" customHeight="1" spans="1:6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="1:6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="1:6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" ht="50" customHeight="1" spans="1:6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" ht="50" customHeight="1" spans="1:6">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" ht="50" customHeight="1" spans="1:6">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" ht="50" customHeight="1" spans="1:6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" ht="50" customHeight="1" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" ht="50" customHeight="1" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="F13" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" ht="50" customHeight="1" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" ht="50" customHeight="1"/>
-    <row r="6" ht="50" customHeight="1"/>
-    <row r="7" ht="50" customHeight="1"/>
-    <row r="8" ht="50" customHeight="1"/>
-    <row r="9" ht="50" customHeight="1"/>
-    <row r="10" ht="50" customHeight="1"/>
-    <row r="11" ht="50" customHeight="1"/>
-    <row r="12" ht="50" customHeight="1"/>
-    <row r="13" ht="50" customHeight="1"/>
-    <row r="14" ht="50" customHeight="1"/>
-    <row r="15" ht="50" customHeight="1"/>
-    <row r="16" ht="50" customHeight="1"/>
-    <row r="17" ht="50" customHeight="1"/>
-    <row r="18" ht="50" customHeight="1"/>
-    <row r="19" ht="50" customHeight="1"/>
-    <row r="20" ht="50" customHeight="1"/>
-    <row r="21" ht="50" customHeight="1"/>
-    <row r="22" ht="50" customHeight="1"/>
-    <row r="23" ht="50" customHeight="1"/>
-    <row r="24" ht="50" customHeight="1"/>
+      <c r="F14" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="50" customHeight="1" spans="1:6">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" ht="50" customHeight="1" spans="1:6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" ht="50" customHeight="1" spans="1:6">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" ht="50" customHeight="1" spans="1:6">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" ht="50" customHeight="1" spans="1:6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" ht="50" customHeight="1" spans="1:6">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" ht="50" customHeight="1" spans="1:6">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" ht="50" customHeight="1" spans="1:6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" ht="50" customHeight="1" spans="1:6">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" ht="50" customHeight="1" spans="1:6">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+    </row>
     <row r="25" ht="50" customHeight="1"/>
     <row r="26" ht="50" customHeight="1"/>
+    <row r="27" ht="50" customHeight="1"/>
+    <row r="28" ht="50" customHeight="1"/>
+    <row r="29" ht="50" customHeight="1"/>
+    <row r="30" ht="50" customHeight="1"/>
+    <row r="31" ht="50" customHeight="1"/>
+    <row r="32" ht="50" customHeight="1"/>
+    <row r="33" ht="50" customHeight="1"/>
+    <row r="34" ht="50" customHeight="1"/>
+    <row r="35" ht="50" customHeight="1"/>
+    <row r="36" ht="50" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1860,7 +2229,7 @@
   <sheetPr/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1888,10 +2257,10 @@
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
@@ -1901,15 +2270,15 @@
         <v>22</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
@@ -1919,15 +2288,15 @@
         <v>22</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
@@ -1937,15 +2306,15 @@
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
@@ -1955,15 +2324,15 @@
         <v>22</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
@@ -1973,115 +2342,115 @@
         <v>22</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1"/>
@@ -2145,10 +2514,10 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
@@ -2158,15 +2527,15 @@
         <v>22</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
@@ -2176,15 +2545,15 @@
         <v>22</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
@@ -2194,7 +2563,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1"/>

--- a/yanlongbin/Project code/woniuboss/data/woniuboss_gui/woniuboss_gui.xlsx
+++ b/yanlongbin/Project code/woniuboss/data/woniuboss_gui/woniuboss_gui.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="10020" activeTab="1"/>
+    <workbookView windowWidth="22080" windowHeight="10020" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="136">
   <si>
     <t>用例编号</t>
   </si>
@@ -102,9 +102,15 @@
     <t>EM_correct</t>
   </si>
   <si>
+    <t>EM_002</t>
+  </si>
+  <si>
     <t>技术面试-下拉框</t>
   </si>
   <si>
+    <t>EM_003</t>
+  </si>
+  <si>
     <t>技术面试-下拉框-查询</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
   </si>
   <si>
     <t>付文攀</t>
+  </si>
+  <si>
+    <t>EM_004</t>
   </si>
   <si>
     <t>技术面试-面试工作流</t>
@@ -122,37 +131,58 @@
 em_evaluation=上海</t>
   </si>
   <si>
-    <t>EM_002</t>
+    <t>EM_005</t>
   </si>
   <si>
     <t>就业管理-界面</t>
   </si>
   <si>
+    <t>EM_006</t>
+  </si>
+  <si>
     <t>就业管理-班级下拉框</t>
   </si>
   <si>
+    <t>EM_007</t>
+  </si>
+  <si>
     <t>就业管理-方向下拉框</t>
   </si>
   <si>
+    <t>EM_008</t>
+  </si>
+  <si>
     <t>就业管理-班级查询</t>
   </si>
   <si>
     <t>class_query=全部</t>
   </si>
   <si>
+    <t>EM_009</t>
+  </si>
+  <si>
     <t>就业管理-方向查询</t>
   </si>
   <si>
     <t>direction_query=全部</t>
   </si>
   <si>
+    <t>EM_010</t>
+  </si>
+  <si>
     <t>就业管理-姓名查询</t>
   </si>
   <si>
     <t>em_name=付文攀</t>
   </si>
   <si>
+    <t>EM_011</t>
+  </si>
+  <si>
     <t>就业管理-学号查询</t>
+  </si>
+  <si>
+    <t>EM_012</t>
   </si>
   <si>
     <t>就业管理-模拟面试工作流</t>
@@ -161,6 +191,9 @@
     <t>em_xpected_salary=12000
 mock_interviews=优
 em_note=太棒了</t>
+  </si>
+  <si>
+    <t>EM_013</t>
   </si>
   <si>
     <t>就业管理-真实面试工作流</t>
@@ -170,6 +203,9 @@
 jobs=Java工程师
 em_interview_time=2020-04-23
 em_interview_feedback=状态良好，面试成功</t>
+  </si>
+  <si>
+    <t>EM_014</t>
   </si>
   <si>
     <t>就业管理-入职情况工作流</t>
@@ -182,6 +218,9 @@
 em_interview_note=面试成功，待遇良好</t>
   </si>
   <si>
+    <t>EM_015</t>
+  </si>
+  <si>
     <t>就业管理-提交工作流</t>
   </si>
   <si>
@@ -197,15 +236,136 @@
     <t>FM_002</t>
   </si>
   <si>
+    <t>财务流水-一级科目</t>
+  </si>
+  <si>
+    <t>FM_003</t>
+  </si>
+  <si>
+    <t>财务流水-二级科目</t>
+  </si>
+  <si>
+    <t>FM_004</t>
+  </si>
+  <si>
+    <t>财务流水-查询工作流</t>
+  </si>
+  <si>
+    <t>fm_start_time=2020-04-01
+fm_end_time=2020-04-30
+one_subject=主营业务收入
+two_subject=就业培训</t>
+  </si>
+  <si>
+    <t>测试账号</t>
+  </si>
+  <si>
+    <t>FM_005</t>
+  </si>
+  <si>
+    <t>财务流水-上月查询</t>
+  </si>
+  <si>
+    <t>无符合条件的记录</t>
+  </si>
+  <si>
+    <t>FM_006</t>
+  </si>
+  <si>
+    <t>财务流水-本月查询</t>
+  </si>
+  <si>
+    <t>FM_007</t>
+  </si>
+  <si>
+    <t>财务流水-新增工作流</t>
+  </si>
+  <si>
+    <t>one_subject=主营业务收入
+two_subject=就业培训
+fm_type=公账
+settlement=转账
+fm_trading_time=2020-04-27
+head=基本户（重庆）
+payment=收入
+fm_amount=1234443
+trading=153409138
+fm_other_trading=
+fm_capital_uses=测试专用1号</t>
+  </si>
+  <si>
+    <t>FM_008</t>
+  </si>
+  <si>
+    <t>财务流水-修改工作流</t>
+  </si>
+  <si>
+    <t>one_subject=主营业务收入
+two_subject=就业培训
+fm_type=公账
+settlement=转账
+fm_trading_time=2020-04-27
+head=基本户（重庆）
+payment=收入
+fm_amount=1234443
+trading=153409138
+fm_other_trading=
+fm_capital_uses=测试专用2号</t>
+  </si>
+  <si>
+    <t>FM_009</t>
+  </si>
+  <si>
     <t>公账导入-界面</t>
   </si>
   <si>
-    <t>FM_003</t>
+    <t>FM_010</t>
   </si>
   <si>
     <t>学员缴费-界面</t>
   </si>
   <si>
+    <t>FM_011</t>
+  </si>
+  <si>
+    <t>学员缴费-搜索状态下拉框</t>
+  </si>
+  <si>
+    <t>FM_012</t>
+  </si>
+  <si>
+    <t>学员缴费-状态查询</t>
+  </si>
+  <si>
+    <t>fm_state=待缴费</t>
+  </si>
+  <si>
+    <t>赵千</t>
+  </si>
+  <si>
+    <t>FM_013</t>
+  </si>
+  <si>
+    <t>学员缴费-姓名查询</t>
+  </si>
+  <si>
+    <t>fm_name=赵千</t>
+  </si>
+  <si>
+    <t>FM_014</t>
+  </si>
+  <si>
+    <t>学院缴费-缴费/退费工作流</t>
+  </si>
+  <si>
+    <t>student_class=WNCDC035
+stustatus=待缴费
+fm_stupay_amount=123344
+select=支付宝
+fm_trading_time=基本户（重庆）
+payment_account=测试用例</t>
+  </si>
+  <si>
     <t>PM_001</t>
   </si>
   <si>
@@ -249,6 +409,9 @@
   </si>
   <si>
     <t>WNCD004</t>
+  </si>
+  <si>
+    <t>PM_007</t>
   </si>
   <si>
     <t>部门查询</t>
@@ -256,6 +419,9 @@
   <si>
     <t>region=成都
 department=渠道部</t>
+  </si>
+  <si>
+    <t>PM_008</t>
   </si>
   <si>
     <t>状态查询</t>
@@ -266,10 +432,16 @@
 state=在职</t>
   </si>
   <si>
+    <t>PM_009</t>
+  </si>
+  <si>
     <t>姓名查询</t>
   </si>
   <si>
     <t>uname=刘雪梅</t>
+  </si>
+  <si>
+    <t>PM_010</t>
   </si>
   <si>
     <t>新增员工</t>
@@ -284,6 +456,9 @@
 phone=
 email=
 qq=</t>
+  </si>
+  <si>
+    <t>PM_011</t>
   </si>
   <si>
     <t>修改</t>
@@ -1040,7 +1215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1072,14 +1247,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1497,39 +1675,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.7" style="14" customWidth="1"/>
-    <col min="2" max="2" width="29" style="14" customWidth="1"/>
-    <col min="3" max="4" width="35.2" style="14" customWidth="1"/>
-    <col min="5" max="5" width="26.6" style="14" customWidth="1"/>
-    <col min="6" max="6" width="27.4" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="15.7" style="15" customWidth="1"/>
+    <col min="2" max="2" width="29" style="15" customWidth="1"/>
+    <col min="3" max="4" width="35.2" style="15" customWidth="1"/>
+    <col min="5" max="5" width="26.6" style="15" customWidth="1"/>
+    <col min="6" max="6" width="27.4" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="108" spans="1:6">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="9"/>
@@ -1539,102 +1717,102 @@
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" ht="13.8" spans="1:6">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" ht="13.8" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" ht="13.8" spans="1:6">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" ht="13.8" spans="1:6">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="34"/>
+      <c r="B15" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1648,13 +1826,13 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="16384" width="9" style="11"/>
+    <col min="1" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1676,8 +1854,8 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
@@ -1696,13 +1874,15 @@
       <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
@@ -1714,51 +1894,55 @@
       <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" s="11" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" s="13" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
@@ -1770,13 +1954,15 @@
       <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
@@ -1788,13 +1974,15 @@
       <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B8" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
@@ -1806,67 +1994,75 @@
       <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B9" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
@@ -1874,67 +2070,75 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="B16" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
@@ -1946,8 +2150,8 @@
       <c r="F16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" ht="30" customHeight="1"/>
     <row r="18" ht="30" customHeight="1"/>
@@ -1964,10 +2168,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1994,10 +2198,10 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
@@ -2007,217 +2211,255 @@
         <v>22</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>50</v>
+        <v>91</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" ht="50" customHeight="1" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" ht="50" customHeight="1" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" ht="50" customHeight="1" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" ht="50" customHeight="1" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" ht="50" customHeight="1" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" ht="50" customHeight="1" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" ht="50" customHeight="1" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" ht="50" customHeight="1" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" ht="50" customHeight="1" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" ht="50" customHeight="1" spans="1:6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-    </row>
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" ht="50" customHeight="1"/>
+    <row r="17" ht="50" customHeight="1"/>
+    <row r="18" ht="50" customHeight="1"/>
+    <row r="19" ht="50" customHeight="1"/>
+    <row r="20" ht="50" customHeight="1"/>
+    <row r="21" ht="50" customHeight="1"/>
+    <row r="22" ht="50" customHeight="1"/>
+    <row r="23" ht="50" customHeight="1"/>
+    <row r="24" ht="50" customHeight="1"/>
     <row r="25" ht="50" customHeight="1"/>
     <row r="26" ht="50" customHeight="1"/>
     <row r="27" ht="50" customHeight="1"/>
-    <row r="28" ht="50" customHeight="1"/>
-    <row r="29" ht="50" customHeight="1"/>
-    <row r="30" ht="50" customHeight="1"/>
-    <row r="31" ht="50" customHeight="1"/>
-    <row r="32" ht="50" customHeight="1"/>
-    <row r="33" ht="50" customHeight="1"/>
-    <row r="34" ht="50" customHeight="1"/>
-    <row r="35" ht="50" customHeight="1"/>
-    <row r="36" ht="50" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2230,7 +2472,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -2257,10 +2499,10 @@
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
@@ -2270,15 +2512,15 @@
         <v>22</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
@@ -2288,15 +2530,15 @@
         <v>22</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
@@ -2306,15 +2548,15 @@
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
@@ -2324,15 +2566,15 @@
         <v>22</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
@@ -2342,115 +2584,115 @@
         <v>22</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1"/>
@@ -2486,8 +2728,8 @@
   <sheetPr/>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -2514,10 +2756,10 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
@@ -2527,15 +2769,15 @@
         <v>22</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
@@ -2545,15 +2787,15 @@
         <v>22</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
@@ -2563,7 +2805,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1"/>

--- a/yanlongbin/Project code/woniuboss/data/woniuboss_gui/woniuboss_gui.xlsx
+++ b/yanlongbin/Project code/woniuboss/data/woniuboss_gui/woniuboss_gui.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="10020" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="22080" windowHeight="10020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="135">
   <si>
     <t>用例编号</t>
   </si>
@@ -375,12 +375,6 @@
     <t>PM_correct</t>
   </si>
   <si>
-    <t>PM_002</t>
-  </si>
-  <si>
-    <t>部门管理-界面</t>
-  </si>
-  <si>
     <t>PM_003</t>
   </si>
   <si>
@@ -397,6 +391,9 @@
   </si>
   <si>
     <t>状态-下拉框-内容</t>
+  </si>
+  <si>
+    <t>PM_correct1</t>
   </si>
   <si>
     <t>PM_006</t>
@@ -502,10 +499,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -574,6 +571,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -581,8 +579,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,17 +611,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -618,27 +631,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -658,20 +662,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -687,32 +701,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,187 +742,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,8 +966,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -987,6 +986,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,7 +1033,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,42 +1061,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1082,133 +1079,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -1683,7 +1680,7 @@
     <col min="7" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="13.8" spans="1:6">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="13.8" spans="1:6">
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
@@ -1826,8 +1823,8 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2068,8 +2065,12 @@
       <c r="D12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
@@ -2170,8 +2171,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -2469,10 +2470,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -2566,135 +2567,118 @@
         <v>22</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:6">
-      <c r="A12" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
+    <row r="12" ht="30" customHeight="1"/>
     <row r="13" ht="30" customHeight="1"/>
     <row r="14" ht="30" customHeight="1"/>
     <row r="15" ht="30" customHeight="1"/>
@@ -2716,7 +2700,6 @@
     <row r="31" ht="30" customHeight="1"/>
     <row r="32" ht="30" customHeight="1"/>
     <row r="33" ht="30" customHeight="1"/>
-    <row r="34" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2728,8 +2711,8 @@
   <sheetPr/>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -2756,10 +2739,10 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
@@ -2769,15 +2752,15 @@
         <v>22</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
@@ -2787,15 +2770,15 @@
         <v>22</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
@@ -2805,7 +2788,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1"/>
